--- a/docs/GdP_RED.xlsx
+++ b/docs/GdP_RED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenev\Downloads\projet RED\Projet RED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexf\Desktop\PROJET RED\projet-red_Arden\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5E725D-D839-4783-9C2F-42E11D6837A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F3263B-70AC-4E81-B38E-BBE565B2E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D6C504DC-70C3-4139-99BE-4C6BBC477440}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Leneveu Flavien</t>
+  </si>
+  <si>
+    <t>Fatoux-Della Posta Alexandre</t>
   </si>
 </sst>
 </file>
@@ -903,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CFFF9C-EA01-4587-A7BA-633E67FCD999}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="9">
         <v>1</v>
@@ -967,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
@@ -989,7 +992,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="5" t="s">
@@ -1011,7 +1014,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="5" t="s">
@@ -1028,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5" t="s">
@@ -1045,7 +1048,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="5" t="s">
@@ -1062,7 +1065,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="5" t="s">
@@ -1079,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="5" t="s">
@@ -1096,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="5" t="s">
@@ -1113,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="5" t="s">
@@ -1130,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="5" t="s">
@@ -1147,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="5" t="s">
@@ -1164,7 +1167,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="5" t="s">
@@ -1181,7 +1184,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="5" t="s">
@@ -1198,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="5" t="s">
@@ -1215,7 +1218,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="5" t="s">
@@ -1232,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="5" t="s">
@@ -1249,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="5" t="s">
@@ -1266,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="5" t="s">
@@ -1283,7 +1286,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="5" t="s">
@@ -1300,7 +1303,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="5" t="s">
@@ -1317,7 +1320,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="5" t="s">
@@ -1334,7 +1337,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="5" t="s">
@@ -1368,7 +1371,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="5" t="s">
@@ -1385,7 +1388,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="5" t="s">
@@ -1402,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="5" t="s">
@@ -1419,7 +1422,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="5" t="s">
@@ -1436,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="5" t="s">
@@ -1453,7 +1456,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="5" t="s">
@@ -1470,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="5" t="s">
@@ -1543,6 +1546,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010096C6A415062AD84095B875A0E511DBA8" ma:contentTypeVersion="15" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="06b06fef34f923c070b690eb35097fdc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2c841d9-878d-400c-bac0-4e58b9c15a46" xmlns:ns3="d068e648-32f8-481f-a8f5-3ea019f54b7d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f1a7f9f0ab6536e647325802491151ee" ns2:_="" ns3:_="">
     <xsd:import namespace="f2c841d9-878d-400c-bac0-4e58b9c15a46"/>
@@ -1777,15 +1789,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FD66D29-06A9-4143-B590-090B341E9F55}">
   <ds:schemaRefs>
@@ -1798,6 +1801,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E735A-67AF-402C-BD43-BF0A7610D2D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4CECA5D-0BA7-4A69-B01E-A46D8B17CF84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1814,12 +1825,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F20E735A-67AF-402C-BD43-BF0A7610D2D7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>